--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/20_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/20_455-55R22.xlsx
@@ -19,7 +19,271 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="144">
+  <si>
+    <t>Signal_Value_1</t>
+  </si>
+  <si>
+    <t>Signal_Value_2</t>
+  </si>
+  <si>
+    <t>Signal_Value_3</t>
+  </si>
+  <si>
+    <t>Signal_Value_4</t>
+  </si>
+  <si>
+    <t>Signal_Value_5</t>
+  </si>
+  <si>
+    <t>Signal_Value_6</t>
+  </si>
+  <si>
+    <t>Signal_Value_7</t>
+  </si>
+  <si>
+    <t>Signal_Value_8</t>
+  </si>
+  <si>
+    <t>Signal_Value_9</t>
+  </si>
+  <si>
+    <t>Signal_Value_10</t>
+  </si>
+  <si>
+    <t>Signal_Value_11</t>
+  </si>
+  <si>
+    <t>Signal_Value_12</t>
+  </si>
+  <si>
+    <t>Signal_Value_13</t>
+  </si>
+  <si>
+    <t>Signal_Value_14</t>
+  </si>
+  <si>
+    <t>Signal_Value_15</t>
+  </si>
+  <si>
+    <t>Signal_Value_16</t>
+  </si>
+  <si>
+    <t>Signal_Value_17</t>
+  </si>
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
+  <si>
+    <t>Signal_Value_25</t>
+  </si>
+  <si>
+    <t>Signal_Value_26</t>
+  </si>
+  <si>
+    <t>Signal_Value_27</t>
+  </si>
+  <si>
+    <t>Signal_Value_28</t>
+  </si>
+  <si>
+    <t>Signal_Value_29</t>
+  </si>
+  <si>
+    <t>Signal_Value_30</t>
+  </si>
+  <si>
+    <t>Signal_Value_31</t>
+  </si>
+  <si>
+    <t>Signal_Value_32</t>
+  </si>
+  <si>
+    <t>Signal_Value_33</t>
+  </si>
+  <si>
+    <t>Signal_Value_34</t>
+  </si>
+  <si>
+    <t>Signal_Value_35</t>
+  </si>
+  <si>
+    <t>Signal_Value_36</t>
+  </si>
+  <si>
+    <t>Signal_Value_37</t>
+  </si>
+  <si>
+    <t>Signal_Value_38</t>
+  </si>
+  <si>
+    <t>Signal_Value_39</t>
+  </si>
+  <si>
+    <t>Signal_Value_40</t>
+  </si>
+  <si>
+    <t>Signal_Value_41</t>
+  </si>
+  <si>
+    <t>Signal_Value_42</t>
+  </si>
+  <si>
+    <t>Signal_Value_43</t>
+  </si>
+  <si>
+    <t>Signal_Value_44</t>
+  </si>
+  <si>
+    <t>Signal_Value_45</t>
+  </si>
+  <si>
+    <t>Signal_Value_46</t>
+  </si>
+  <si>
+    <t>Signal_Value_47</t>
+  </si>
+  <si>
+    <t>Signal_Value_48</t>
+  </si>
+  <si>
+    <t>Signal_Value_49</t>
+  </si>
+  <si>
+    <t>Signal_Value_50</t>
+  </si>
+  <si>
+    <t>Signal_Value_51</t>
+  </si>
+  <si>
+    <t>Signal_Value_52</t>
+  </si>
+  <si>
+    <t>Signal_Value_53</t>
+  </si>
+  <si>
+    <t>Signal_Value_54</t>
+  </si>
+  <si>
+    <t>Signal_Value_55</t>
+  </si>
+  <si>
+    <t>Signal_Value_56</t>
+  </si>
+  <si>
+    <t>Signal_Value_57</t>
+  </si>
+  <si>
+    <t>Signal_Value_58</t>
+  </si>
+  <si>
+    <t>Signal_Value_59</t>
+  </si>
+  <si>
+    <t>Signal_Value_60</t>
+  </si>
+  <si>
+    <t>Signal_Value_61</t>
+  </si>
+  <si>
+    <t>Signal_Value_62</t>
+  </si>
+  <si>
+    <t>Signal_Value_63</t>
+  </si>
+  <si>
+    <t>Signal_Value_64</t>
+  </si>
+  <si>
+    <t>Signal_Value_65</t>
+  </si>
+  <si>
+    <t>Signal_Value_66</t>
+  </si>
+  <si>
+    <t>Signal_Value_67</t>
+  </si>
+  <si>
+    <t>Signal_Value_68</t>
+  </si>
+  <si>
+    <t>Signal_Value_69</t>
+  </si>
+  <si>
+    <t>Signal_Value_70</t>
+  </si>
+  <si>
+    <t>Signal_Value_71</t>
+  </si>
+  <si>
+    <t>Signal_Value_72</t>
+  </si>
+  <si>
+    <t>Signal_Value_73</t>
+  </si>
+  <si>
+    <t>Signal_Value_74</t>
+  </si>
+  <si>
+    <t>Signal_Value_75</t>
+  </si>
+  <si>
+    <t>Signal_Value_76</t>
+  </si>
+  <si>
+    <t>Signal_Value_77</t>
+  </si>
+  <si>
+    <t>Signal_Value_78</t>
+  </si>
+  <si>
+    <t>Signal_Value_79</t>
+  </si>
+  <si>
+    <t>Signal_Value_80</t>
+  </si>
+  <si>
+    <t>Signal_Value_81</t>
+  </si>
+  <si>
+    <t>Signal_Value_82</t>
+  </si>
+  <si>
+    <t>Signal_Value_83</t>
+  </si>
+  <si>
+    <t>Signal_Value_84</t>
+  </si>
+  <si>
+    <t>Signal_Value_85</t>
+  </si>
+  <si>
+    <t>Signal_Value_86</t>
+  </si>
+  <si>
+    <t>Signal_Value_87</t>
+  </si>
+  <si>
+    <t>Signal_Value_88</t>
+  </si>
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -121,15 +385,6 @@
   </si>
   <si>
     <t>Signal_Value_122</t>
-  </si>
-  <si>
-    <t>Signal_Value_123</t>
-  </si>
-  <si>
-    <t>Signal_Value_124</t>
-  </si>
-  <si>
-    <t>Signal_Value_125</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -553,15 +808,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL6"/>
+  <dimension ref="A1:DS6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:123">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -674,10 +929,265 @@
       <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:123">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -686,22 +1196,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.4191875549243985</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1988962653115924</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.1513854117655921</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02876653646983837</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.006646683062633787</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -710,25 +1220,25 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.02304694628723282</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.03217939539793669</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.05221316467841435</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.01936879692521693</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.02897323996792089</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.01872522003150782</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -746,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.006331095914911082</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -755,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.01015584799425352</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.003888675663626032</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0002351656049246838</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -790,10 +1300,265 @@
       <c r="AL2">
         <v>0</v>
       </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0.2783692295769983</v>
+      </c>
+      <c r="BA2">
+        <v>0.03453113841409994</v>
+      </c>
+      <c r="BB2">
+        <v>0.3186117603469074</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0.08862388999593929</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0.004332849461862019</v>
+      </c>
+      <c r="BI2">
+        <v>0.1091036613412934</v>
+      </c>
+      <c r="BJ2">
+        <v>0.01188713212839076</v>
+      </c>
+      <c r="BK2">
+        <v>0.03010409743290606</v>
+      </c>
+      <c r="BL2">
+        <v>0.02561035242849407</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0.02098891272690815</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0.01236107564005395</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0.03116631903603286</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0.01607081179071186</v>
+      </c>
+      <c r="BZ2">
+        <v>0.01536566593304254</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0.002873103746359621</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DN2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>0</v>
+      </c>
+      <c r="DP2">
+        <v>0</v>
+      </c>
+      <c r="DQ2">
+        <v>0</v>
+      </c>
+      <c r="DR2">
+        <v>0</v>
+      </c>
+      <c r="DS2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:123">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -811,55 +1576,55 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.03105458991453655</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.1678595640736542</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.34417914417735</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.104096976904886</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.002399835875633097</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0343734766453744</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0203566103724366</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.02836404672136914</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.04088274584005891</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1256742090586891</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.07812054548280759</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.02263825493320439</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -906,85 +1671,340 @@
       <c r="AL3">
         <v>0</v>
       </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0.1704146110166822</v>
+      </c>
+      <c r="CO3">
+        <v>0.1180605706736823</v>
+      </c>
+      <c r="CP3">
+        <v>0.313675515067607</v>
+      </c>
+      <c r="CQ3">
+        <v>0.0401144155862251</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0.02412637800645017</v>
+      </c>
+      <c r="CT3">
+        <v>0.01587748224969166</v>
+      </c>
+      <c r="CU3">
+        <v>0.005493958154003943</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>0.1410274129241726</v>
+      </c>
+      <c r="CX3">
+        <v>0.0357700443000576</v>
+      </c>
+      <c r="CY3">
+        <v>0.0120629551461044</v>
+      </c>
+      <c r="CZ3">
+        <v>0.04813871863060762</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>0.06469979808293209</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0.0003097860314271538</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>0.00301791227552634</v>
+      </c>
+      <c r="DI3">
+        <v>0.001721156693912735</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
+      </c>
+      <c r="DL3">
+        <v>0</v>
+      </c>
+      <c r="DM3">
+        <v>0</v>
+      </c>
+      <c r="DN3">
+        <v>0.005489285160917047</v>
+      </c>
+      <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>0</v>
+      </c>
+      <c r="DQ3">
+        <v>0</v>
+      </c>
+      <c r="DR3">
+        <v>0</v>
+      </c>
+      <c r="DS3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:123">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.3558730213780589</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.1090585981449683</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2102933323559729</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.01236727505293504</v>
       </c>
       <c r="G4">
-        <v>0.2551194418598071</v>
+        <v>0.006604663461416378</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01196426799722883</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06091237193315317</v>
+        <v>0.0002864487760361686</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0008236009812169002</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.05528295753582678</v>
       </c>
       <c r="N4">
-        <v>0.02476182953853135</v>
+        <v>0.1131990218759294</v>
       </c>
       <c r="O4">
-        <v>0.03527098174367467</v>
+        <v>0.0671761705806424</v>
       </c>
       <c r="P4">
-        <v>0.016806218984216</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.07741725876040371</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.02643939584360275</v>
       </c>
       <c r="S4">
-        <v>0.1814439198682341</v>
+        <v>0.08426403013074781</v>
       </c>
       <c r="T4">
-        <v>0.02304528828274621</v>
+        <v>0.05569383373436428</v>
       </c>
       <c r="U4">
-        <v>0.07985114096158373</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.01644086893556386</v>
+        <v>0.003602080170150786</v>
       </c>
       <c r="W4">
-        <v>0.0001924261553083983</v>
+        <v>0.03432646161576178</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.03412693722983661</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.007137630596971029</v>
       </c>
       <c r="Z4">
-        <v>0.003530742484204563</v>
+        <v>0.007357733829417046</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -999,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.02170359733217656</v>
       </c>
       <c r="AF4">
-        <v>0.002651252489972503</v>
+        <v>0.004676541729941117</v>
       </c>
       <c r="AG4">
-        <v>0.0002986576493988193</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -1022,70 +2042,325 @@
       <c r="AL4">
         <v>0</v>
       </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DI4">
+        <v>0</v>
+      </c>
+      <c r="DJ4">
+        <v>0</v>
+      </c>
+      <c r="DK4">
+        <v>0</v>
+      </c>
+      <c r="DL4">
+        <v>0</v>
+      </c>
+      <c r="DM4">
+        <v>0</v>
+      </c>
+      <c r="DN4">
+        <v>0</v>
+      </c>
+      <c r="DO4">
+        <v>0</v>
+      </c>
+      <c r="DP4">
+        <v>0</v>
+      </c>
+      <c r="DQ4">
+        <v>0</v>
+      </c>
+      <c r="DR4">
+        <v>0</v>
+      </c>
+      <c r="DS4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:123">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.3045546881646484</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.2219799464494207</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.03422342571615477</v>
       </c>
       <c r="E5">
-        <v>0.038575329251885</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3105201763017616</v>
+        <v>0.001312775841989043</v>
       </c>
       <c r="G5">
-        <v>0.2347095428401411</v>
+        <v>0.0109767626201317</v>
       </c>
       <c r="H5">
-        <v>0.0535557580681697</v>
+        <v>0.003185160989627794</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001612402046391475</v>
       </c>
       <c r="J5">
-        <v>0.04135272014704477</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.01258300349277528</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.04308974064189475</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.003722742016594229</v>
+        <v>0.0136977595187081</v>
       </c>
       <c r="N5">
-        <v>0.01525273473164749</v>
+        <v>0.04997698108168485</v>
       </c>
       <c r="O5">
-        <v>0.03983807078402234</v>
+        <v>0.08382925765916002</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.008708573993655941</v>
       </c>
       <c r="Q5">
-        <v>0.07343847892181843</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.1246601080673956</v>
+        <v>0.05129031528436409</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.09728273609809912</v>
       </c>
       <c r="U5">
-        <v>0.003025394034302868</v>
+        <v>0.06151429899400727</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1094,16 +2369,16 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.02604185574313218</v>
       </c>
       <c r="Y5">
-        <v>0.003381388787957729</v>
+        <v>0.02257812814046713</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.002822628797496405</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1118,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.0044123028608613</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1127,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.002294811912589189</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1138,10 +2413,265 @@
       <c r="AL5">
         <v>0</v>
       </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DD5">
+        <v>0</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
+      </c>
+      <c r="DF5">
+        <v>0</v>
+      </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
+      <c r="DH5">
+        <v>0</v>
+      </c>
+      <c r="DI5">
+        <v>0</v>
+      </c>
+      <c r="DJ5">
+        <v>0</v>
+      </c>
+      <c r="DK5">
+        <v>0</v>
+      </c>
+      <c r="DL5">
+        <v>0</v>
+      </c>
+      <c r="DM5">
+        <v>0</v>
+      </c>
+      <c r="DN5">
+        <v>0</v>
+      </c>
+      <c r="DO5">
+        <v>0</v>
+      </c>
+      <c r="DP5">
+        <v>0</v>
+      </c>
+      <c r="DQ5">
+        <v>0</v>
+      </c>
+      <c r="DR5">
+        <v>0</v>
+      </c>
+      <c r="DS5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:123">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1150,22 +2680,22 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3936349018295414</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05602963586919978</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.169089399176386</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.02309635216080352</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0288561171074857</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1177,31 +2707,31 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.07281874308068702</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03022702261641498</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.03291564040568214</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1207201342842007</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.03603122104201079</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.03647625380050649</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0001045786270813876</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1252,6 +2782,261 @@
         <v>0</v>
       </c>
       <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0.2592769101764228</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0.3503513054550158</v>
+      </c>
+      <c r="BC6">
+        <v>0.04051699515745712</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0.08115384326839907</v>
+      </c>
+      <c r="BF6">
+        <v>0.0196134725795136</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0.1253909162903644</v>
+      </c>
+      <c r="BJ6">
+        <v>0.00435142727621996</v>
+      </c>
+      <c r="BK6">
+        <v>0.02216461931604053</v>
+      </c>
+      <c r="BL6">
+        <v>0.04150213863379578</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0.02251881985615799</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0.02332593370636558</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0.00983361828424727</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DD6">
+        <v>0</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DF6">
+        <v>0</v>
+      </c>
+      <c r="DG6">
+        <v>0</v>
+      </c>
+      <c r="DH6">
+        <v>0</v>
+      </c>
+      <c r="DI6">
+        <v>0</v>
+      </c>
+      <c r="DJ6">
+        <v>0</v>
+      </c>
+      <c r="DK6">
+        <v>0</v>
+      </c>
+      <c r="DL6">
+        <v>0</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
+      <c r="DN6">
+        <v>0</v>
+      </c>
+      <c r="DO6">
+        <v>0</v>
+      </c>
+      <c r="DP6">
+        <v>0</v>
+      </c>
+      <c r="DQ6">
+        <v>0</v>
+      </c>
+      <c r="DR6">
+        <v>0</v>
+      </c>
+      <c r="DS6">
         <v>0</v>
       </c>
     </row>
@@ -1262,15 +3047,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL6"/>
+  <dimension ref="A1:DS6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:123">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1383,10 +3168,265 @@
       <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:123">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1395,114 +3435,369 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.4191875549243985</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.618083820235991</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7694692320015831</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.7694692320015831</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.7982357684714215</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8048824515340554</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.8048824515340554</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8048824515340554</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8279293978212882</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8601087932192248</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8601087932192248</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9123219578976391</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9316907548228561</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.960663994790777</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.9793892148222848</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.9793892148222848</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.9793892148222848</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.9793892148222848</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.9793892148222848</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.9793892148222848</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.9857203107371959</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.9857203107371959</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.9857203107371959</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.9958761587314494</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.9958761587314494</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.9997648343950755</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0.2783692295769983</v>
+      </c>
+      <c r="BA2">
+        <v>0.3129003679910982</v>
+      </c>
+      <c r="BB2">
+        <v>0.6315121283380056</v>
+      </c>
+      <c r="BC2">
+        <v>0.6315121283380056</v>
+      </c>
+      <c r="BD2">
+        <v>0.6315121283380056</v>
+      </c>
+      <c r="BE2">
+        <v>0.7201360183339449</v>
+      </c>
+      <c r="BF2">
+        <v>0.7201360183339449</v>
+      </c>
+      <c r="BG2">
+        <v>0.7201360183339449</v>
+      </c>
+      <c r="BH2">
+        <v>0.7244688677958069</v>
+      </c>
+      <c r="BI2">
+        <v>0.8335725291371002</v>
+      </c>
+      <c r="BJ2">
+        <v>0.845459661265491</v>
+      </c>
+      <c r="BK2">
+        <v>0.8755637586983971</v>
+      </c>
+      <c r="BL2">
+        <v>0.9011741111268912</v>
+      </c>
+      <c r="BM2">
+        <v>0.9011741111268912</v>
+      </c>
+      <c r="BN2">
+        <v>0.9221630238537993</v>
+      </c>
+      <c r="BO2">
+        <v>0.9221630238537993</v>
+      </c>
+      <c r="BP2">
+        <v>0.9221630238537993</v>
+      </c>
+      <c r="BQ2">
+        <v>0.9221630238537993</v>
+      </c>
+      <c r="BR2">
+        <v>0.9221630238537993</v>
+      </c>
+      <c r="BS2">
+        <v>0.9221630238537993</v>
+      </c>
+      <c r="BT2">
+        <v>0.9345240994938533</v>
+      </c>
+      <c r="BU2">
+        <v>0.9345240994938533</v>
+      </c>
+      <c r="BV2">
+        <v>0.9345240994938533</v>
+      </c>
+      <c r="BW2">
+        <v>0.9656904185298861</v>
+      </c>
+      <c r="BX2">
+        <v>0.9656904185298861</v>
+      </c>
+      <c r="BY2">
+        <v>0.981761230320598</v>
+      </c>
+      <c r="BZ2">
+        <v>0.9971268962536406</v>
+      </c>
+      <c r="CA2">
+        <v>0.9971268962536406</v>
+      </c>
+      <c r="CB2">
+        <v>0.9971268962536406</v>
+      </c>
+      <c r="CC2">
+        <v>0.9971268962536406</v>
+      </c>
+      <c r="CD2">
+        <v>0.9971268962536406</v>
+      </c>
+      <c r="CE2">
+        <v>1</v>
+      </c>
+      <c r="CF2">
+        <v>1</v>
+      </c>
+      <c r="CG2">
+        <v>1</v>
+      </c>
+      <c r="CH2">
+        <v>1</v>
+      </c>
+      <c r="CI2">
+        <v>1</v>
+      </c>
+      <c r="CJ2">
+        <v>1</v>
+      </c>
+      <c r="CK2">
+        <v>1</v>
+      </c>
+      <c r="CL2">
+        <v>1</v>
+      </c>
+      <c r="CM2">
+        <v>1</v>
+      </c>
+      <c r="CN2">
+        <v>1</v>
+      </c>
+      <c r="CO2">
+        <v>1</v>
+      </c>
+      <c r="CP2">
+        <v>1</v>
+      </c>
+      <c r="CQ2">
+        <v>1</v>
+      </c>
+      <c r="CR2">
+        <v>1</v>
+      </c>
+      <c r="CS2">
+        <v>1</v>
+      </c>
+      <c r="CT2">
+        <v>1</v>
+      </c>
+      <c r="CU2">
+        <v>1</v>
+      </c>
+      <c r="CV2">
+        <v>1</v>
+      </c>
+      <c r="CW2">
+        <v>1</v>
+      </c>
+      <c r="CX2">
+        <v>1</v>
+      </c>
+      <c r="CY2">
+        <v>1</v>
+      </c>
+      <c r="CZ2">
+        <v>1</v>
+      </c>
+      <c r="DA2">
+        <v>1</v>
+      </c>
+      <c r="DB2">
+        <v>1</v>
+      </c>
+      <c r="DC2">
+        <v>1</v>
+      </c>
+      <c r="DD2">
+        <v>1</v>
+      </c>
+      <c r="DE2">
+        <v>1</v>
+      </c>
+      <c r="DF2">
+        <v>1</v>
+      </c>
+      <c r="DG2">
+        <v>1</v>
+      </c>
+      <c r="DH2">
+        <v>1</v>
+      </c>
+      <c r="DI2">
+        <v>1</v>
+      </c>
+      <c r="DJ2">
+        <v>1</v>
+      </c>
+      <c r="DK2">
+        <v>1</v>
+      </c>
+      <c r="DL2">
+        <v>1</v>
+      </c>
+      <c r="DM2">
+        <v>1</v>
+      </c>
+      <c r="DN2">
+        <v>1</v>
+      </c>
+      <c r="DO2">
+        <v>1</v>
+      </c>
+      <c r="DP2">
+        <v>1</v>
+      </c>
+      <c r="DQ2">
+        <v>1</v>
+      </c>
+      <c r="DR2">
+        <v>1</v>
+      </c>
+      <c r="DS2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:123">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1520,447 +3815,1467 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.03105458991453655</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.1989141539881908</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5430932981655407</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6471902750704268</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6495901109460599</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.6839635875914343</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6839635875914343</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7043201979638709</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.7043201979638709</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7326842446852401</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.773566990525299</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.773566990525299</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.8992411995839882</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.8992411995839882</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.9773617450667957</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.9773617450667957</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0.1704146110166822</v>
+      </c>
+      <c r="CO3">
+        <v>0.2884751816903645</v>
+      </c>
+      <c r="CP3">
+        <v>0.6021506967579715</v>
+      </c>
+      <c r="CQ3">
+        <v>0.6422651123441966</v>
+      </c>
+      <c r="CR3">
+        <v>0.6422651123441966</v>
+      </c>
+      <c r="CS3">
+        <v>0.6663914903506467</v>
+      </c>
+      <c r="CT3">
+        <v>0.6822689726003384</v>
+      </c>
+      <c r="CU3">
+        <v>0.6877629307543424</v>
+      </c>
+      <c r="CV3">
+        <v>0.6877629307543424</v>
+      </c>
+      <c r="CW3">
+        <v>0.828790343678515</v>
+      </c>
+      <c r="CX3">
+        <v>0.8645603879785726</v>
+      </c>
+      <c r="CY3">
+        <v>0.876623343124677</v>
+      </c>
+      <c r="CZ3">
+        <v>0.9247620617552846</v>
+      </c>
+      <c r="DA3">
+        <v>0.9247620617552846</v>
+      </c>
+      <c r="DB3">
+        <v>0.9894618598382168</v>
+      </c>
+      <c r="DC3">
+        <v>0.9894618598382168</v>
+      </c>
+      <c r="DD3">
+        <v>0.9897716458696439</v>
+      </c>
+      <c r="DE3">
+        <v>0.9897716458696439</v>
+      </c>
+      <c r="DF3">
+        <v>0.9897716458696439</v>
+      </c>
+      <c r="DG3">
+        <v>0.9897716458696439</v>
+      </c>
+      <c r="DH3">
+        <v>0.9927895581451703</v>
+      </c>
+      <c r="DI3">
+        <v>0.994510714839083</v>
+      </c>
+      <c r="DJ3">
+        <v>0.994510714839083</v>
+      </c>
+      <c r="DK3">
+        <v>0.994510714839083</v>
+      </c>
+      <c r="DL3">
+        <v>0.994510714839083</v>
+      </c>
+      <c r="DM3">
+        <v>0.994510714839083</v>
+      </c>
+      <c r="DN3">
+        <v>1</v>
+      </c>
+      <c r="DO3">
+        <v>1</v>
+      </c>
+      <c r="DP3">
+        <v>1</v>
+      </c>
+      <c r="DQ3">
+        <v>1</v>
+      </c>
+      <c r="DR3">
+        <v>1</v>
+      </c>
+      <c r="DS3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:123">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.3558730213780589</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.4649316195230272</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.4649316195230272</v>
       </c>
       <c r="E4">
-        <v>0.2102933323559729</v>
+        <v>0.4649316195230272</v>
       </c>
       <c r="F4">
-        <v>0.2102933323559729</v>
+        <v>0.4772988945759623</v>
       </c>
       <c r="G4">
-        <v>0.46541277421578</v>
+        <v>0.4839035580373786</v>
       </c>
       <c r="H4">
-        <v>0.46541277421578</v>
+        <v>0.4839035580373786</v>
       </c>
       <c r="I4">
-        <v>0.4773770422130088</v>
+        <v>0.4839035580373786</v>
       </c>
       <c r="J4">
-        <v>0.5382894141461619</v>
+        <v>0.4841900068134148</v>
       </c>
       <c r="K4">
-        <v>0.5382894141461619</v>
+        <v>0.4841900068134148</v>
       </c>
       <c r="L4">
-        <v>0.5382894141461619</v>
+        <v>0.4850136077946317</v>
       </c>
       <c r="M4">
-        <v>0.5382894141461619</v>
+        <v>0.5402965653304584</v>
       </c>
       <c r="N4">
-        <v>0.5630512436846933</v>
+        <v>0.6534955872063879</v>
       </c>
       <c r="O4">
-        <v>0.598322225428368</v>
+        <v>0.7206717577870303</v>
       </c>
       <c r="P4">
-        <v>0.615128444412584</v>
+        <v>0.7206717577870303</v>
       </c>
       <c r="Q4">
-        <v>0.6925457031729877</v>
+        <v>0.7206717577870303</v>
       </c>
       <c r="R4">
-        <v>0.6925457031729877</v>
+        <v>0.7471111536306331</v>
       </c>
       <c r="S4">
-        <v>0.8739896230412217</v>
+        <v>0.8313751837613809</v>
       </c>
       <c r="T4">
-        <v>0.897034911323968</v>
+        <v>0.8870690174957452</v>
       </c>
       <c r="U4">
-        <v>0.9768860522855517</v>
+        <v>0.8870690174957452</v>
       </c>
       <c r="V4">
-        <v>0.9933269212211155</v>
+        <v>0.8906710976658959</v>
       </c>
       <c r="W4">
-        <v>0.9935193473764239</v>
+        <v>0.9249975592816577</v>
       </c>
       <c r="X4">
-        <v>0.9935193473764239</v>
+        <v>0.9591244965114943</v>
       </c>
       <c r="Y4">
-        <v>0.9935193473764239</v>
+        <v>0.9662621271084654</v>
       </c>
       <c r="Z4">
-        <v>0.9970500898606285</v>
+        <v>0.9736198609378824</v>
       </c>
       <c r="AA4">
-        <v>0.9970500898606285</v>
+        <v>0.9736198609378824</v>
       </c>
       <c r="AB4">
-        <v>0.9970500898606285</v>
+        <v>0.9736198609378824</v>
       </c>
       <c r="AC4">
-        <v>0.9970500898606285</v>
+        <v>0.9736198609378824</v>
       </c>
       <c r="AD4">
-        <v>0.9970500898606285</v>
+        <v>0.9736198609378824</v>
       </c>
       <c r="AE4">
-        <v>0.9970500898606285</v>
+        <v>0.995323458270059</v>
       </c>
       <c r="AF4">
-        <v>0.999701342350601</v>
+        <v>1</v>
       </c>
       <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>1</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+      <c r="AX4">
+        <v>1</v>
+      </c>
+      <c r="AY4">
+        <v>1</v>
+      </c>
+      <c r="AZ4">
+        <v>1</v>
+      </c>
+      <c r="BA4">
+        <v>1</v>
+      </c>
+      <c r="BB4">
+        <v>1</v>
+      </c>
+      <c r="BC4">
+        <v>1</v>
+      </c>
+      <c r="BD4">
+        <v>1</v>
+      </c>
+      <c r="BE4">
+        <v>1</v>
+      </c>
+      <c r="BF4">
+        <v>1</v>
+      </c>
+      <c r="BG4">
+        <v>1</v>
+      </c>
+      <c r="BH4">
+        <v>1</v>
+      </c>
+      <c r="BI4">
+        <v>1</v>
+      </c>
+      <c r="BJ4">
+        <v>1</v>
+      </c>
+      <c r="BK4">
+        <v>1</v>
+      </c>
+      <c r="BL4">
+        <v>1</v>
+      </c>
+      <c r="BM4">
+        <v>1</v>
+      </c>
+      <c r="BN4">
+        <v>1</v>
+      </c>
+      <c r="BO4">
+        <v>1</v>
+      </c>
+      <c r="BP4">
+        <v>1</v>
+      </c>
+      <c r="BQ4">
+        <v>1</v>
+      </c>
+      <c r="BR4">
+        <v>1</v>
+      </c>
+      <c r="BS4">
+        <v>1</v>
+      </c>
+      <c r="BT4">
+        <v>1</v>
+      </c>
+      <c r="BU4">
+        <v>1</v>
+      </c>
+      <c r="BV4">
+        <v>1</v>
+      </c>
+      <c r="BW4">
+        <v>1</v>
+      </c>
+      <c r="BX4">
+        <v>1</v>
+      </c>
+      <c r="BY4">
+        <v>1</v>
+      </c>
+      <c r="BZ4">
+        <v>1</v>
+      </c>
+      <c r="CA4">
+        <v>1</v>
+      </c>
+      <c r="CB4">
+        <v>1</v>
+      </c>
+      <c r="CC4">
+        <v>1</v>
+      </c>
+      <c r="CD4">
+        <v>1</v>
+      </c>
+      <c r="CE4">
+        <v>1</v>
+      </c>
+      <c r="CF4">
+        <v>1</v>
+      </c>
+      <c r="CG4">
+        <v>1</v>
+      </c>
+      <c r="CH4">
+        <v>1</v>
+      </c>
+      <c r="CI4">
+        <v>1</v>
+      </c>
+      <c r="CJ4">
+        <v>1</v>
+      </c>
+      <c r="CK4">
+        <v>1</v>
+      </c>
+      <c r="CL4">
+        <v>1</v>
+      </c>
+      <c r="CM4">
+        <v>1</v>
+      </c>
+      <c r="CN4">
+        <v>1</v>
+      </c>
+      <c r="CO4">
+        <v>1</v>
+      </c>
+      <c r="CP4">
+        <v>1</v>
+      </c>
+      <c r="CQ4">
+        <v>1</v>
+      </c>
+      <c r="CR4">
+        <v>1</v>
+      </c>
+      <c r="CS4">
+        <v>1</v>
+      </c>
+      <c r="CT4">
+        <v>1</v>
+      </c>
+      <c r="CU4">
+        <v>1</v>
+      </c>
+      <c r="CV4">
+        <v>1</v>
+      </c>
+      <c r="CW4">
+        <v>1</v>
+      </c>
+      <c r="CX4">
+        <v>1</v>
+      </c>
+      <c r="CY4">
+        <v>1</v>
+      </c>
+      <c r="CZ4">
+        <v>1</v>
+      </c>
+      <c r="DA4">
+        <v>1</v>
+      </c>
+      <c r="DB4">
+        <v>1</v>
+      </c>
+      <c r="DC4">
+        <v>1</v>
+      </c>
+      <c r="DD4">
+        <v>1</v>
+      </c>
+      <c r="DE4">
+        <v>1</v>
+      </c>
+      <c r="DF4">
+        <v>1</v>
+      </c>
+      <c r="DG4">
+        <v>1</v>
+      </c>
+      <c r="DH4">
+        <v>1</v>
+      </c>
+      <c r="DI4">
+        <v>1</v>
+      </c>
+      <c r="DJ4">
+        <v>1</v>
+      </c>
+      <c r="DK4">
+        <v>1</v>
+      </c>
+      <c r="DL4">
+        <v>1</v>
+      </c>
+      <c r="DM4">
+        <v>1</v>
+      </c>
+      <c r="DN4">
+        <v>1</v>
+      </c>
+      <c r="DO4">
+        <v>1</v>
+      </c>
+      <c r="DP4">
+        <v>1</v>
+      </c>
+      <c r="DQ4">
+        <v>1</v>
+      </c>
+      <c r="DR4">
+        <v>1</v>
+      </c>
+      <c r="DS4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:123">
+      <c r="A5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5">
+        <v>0.3045546881646484</v>
+      </c>
+      <c r="C5">
+        <v>0.5265346346140691</v>
+      </c>
+      <c r="D5">
+        <v>0.5607580603302239</v>
+      </c>
+      <c r="E5">
+        <v>0.5607580603302239</v>
+      </c>
+      <c r="F5">
+        <v>0.562070836172213</v>
+      </c>
+      <c r="G5">
+        <v>0.5730475987923447</v>
+      </c>
+      <c r="H5">
+        <v>0.5762327597819725</v>
+      </c>
+      <c r="I5">
+        <v>0.577845161828364</v>
+      </c>
+      <c r="J5">
+        <v>0.577845161828364</v>
+      </c>
+      <c r="K5">
+        <v>0.577845161828364</v>
+      </c>
+      <c r="L5">
+        <v>0.577845161828364</v>
+      </c>
+      <c r="M5">
+        <v>0.5915429213470721</v>
+      </c>
+      <c r="N5">
+        <v>0.6415199024287569</v>
+      </c>
+      <c r="O5">
+        <v>0.7253491600879169</v>
+      </c>
+      <c r="P5">
+        <v>0.7340577340815729</v>
+      </c>
+      <c r="Q5">
+        <v>0.7340577340815729</v>
+      </c>
+      <c r="R5">
+        <v>0.7340577340815729</v>
+      </c>
+      <c r="S5">
+        <v>0.7853480493659371</v>
+      </c>
+      <c r="T5">
+        <v>0.8826307854640362</v>
+      </c>
+      <c r="U5">
+        <v>0.9441450844580435</v>
+      </c>
+      <c r="V5">
+        <v>0.9441450844580435</v>
+      </c>
+      <c r="W5">
+        <v>0.9441450844580435</v>
+      </c>
+      <c r="X5">
+        <v>0.9701869402011757</v>
+      </c>
+      <c r="Y5">
+        <v>0.9927650683416428</v>
+      </c>
+      <c r="Z5">
+        <v>0.9927650683416428</v>
+      </c>
+      <c r="AA5">
+        <v>0.9955876971391392</v>
+      </c>
+      <c r="AB5">
+        <v>0.9955876971391392</v>
+      </c>
+      <c r="AC5">
+        <v>0.9955876971391392</v>
+      </c>
+      <c r="AD5">
+        <v>0.9955876971391392</v>
+      </c>
+      <c r="AE5">
+        <v>0.9955876971391392</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+      <c r="AW5">
+        <v>1</v>
+      </c>
+      <c r="AX5">
+        <v>1</v>
+      </c>
+      <c r="AY5">
+        <v>1</v>
+      </c>
+      <c r="AZ5">
+        <v>1</v>
+      </c>
+      <c r="BA5">
+        <v>1</v>
+      </c>
+      <c r="BB5">
+        <v>1</v>
+      </c>
+      <c r="BC5">
+        <v>1</v>
+      </c>
+      <c r="BD5">
+        <v>1</v>
+      </c>
+      <c r="BE5">
+        <v>1</v>
+      </c>
+      <c r="BF5">
+        <v>1</v>
+      </c>
+      <c r="BG5">
+        <v>1</v>
+      </c>
+      <c r="BH5">
+        <v>1</v>
+      </c>
+      <c r="BI5">
+        <v>1</v>
+      </c>
+      <c r="BJ5">
+        <v>1</v>
+      </c>
+      <c r="BK5">
+        <v>1</v>
+      </c>
+      <c r="BL5">
+        <v>1</v>
+      </c>
+      <c r="BM5">
+        <v>1</v>
+      </c>
+      <c r="BN5">
+        <v>1</v>
+      </c>
+      <c r="BO5">
+        <v>1</v>
+      </c>
+      <c r="BP5">
+        <v>1</v>
+      </c>
+      <c r="BQ5">
+        <v>1</v>
+      </c>
+      <c r="BR5">
+        <v>1</v>
+      </c>
+      <c r="BS5">
+        <v>1</v>
+      </c>
+      <c r="BT5">
+        <v>1</v>
+      </c>
+      <c r="BU5">
+        <v>1</v>
+      </c>
+      <c r="BV5">
+        <v>1</v>
+      </c>
+      <c r="BW5">
+        <v>1</v>
+      </c>
+      <c r="BX5">
+        <v>1</v>
+      </c>
+      <c r="BY5">
+        <v>1</v>
+      </c>
+      <c r="BZ5">
+        <v>1</v>
+      </c>
+      <c r="CA5">
+        <v>1</v>
+      </c>
+      <c r="CB5">
+        <v>1</v>
+      </c>
+      <c r="CC5">
+        <v>1</v>
+      </c>
+      <c r="CD5">
+        <v>1</v>
+      </c>
+      <c r="CE5">
+        <v>1</v>
+      </c>
+      <c r="CF5">
+        <v>1</v>
+      </c>
+      <c r="CG5">
+        <v>1</v>
+      </c>
+      <c r="CH5">
+        <v>1</v>
+      </c>
+      <c r="CI5">
+        <v>1</v>
+      </c>
+      <c r="CJ5">
+        <v>1</v>
+      </c>
+      <c r="CK5">
+        <v>1</v>
+      </c>
+      <c r="CL5">
+        <v>1</v>
+      </c>
+      <c r="CM5">
+        <v>1</v>
+      </c>
+      <c r="CN5">
+        <v>1</v>
+      </c>
+      <c r="CO5">
+        <v>1</v>
+      </c>
+      <c r="CP5">
+        <v>1</v>
+      </c>
+      <c r="CQ5">
+        <v>1</v>
+      </c>
+      <c r="CR5">
+        <v>1</v>
+      </c>
+      <c r="CS5">
+        <v>1</v>
+      </c>
+      <c r="CT5">
+        <v>1</v>
+      </c>
+      <c r="CU5">
+        <v>1</v>
+      </c>
+      <c r="CV5">
+        <v>1</v>
+      </c>
+      <c r="CW5">
+        <v>1</v>
+      </c>
+      <c r="CX5">
+        <v>1</v>
+      </c>
+      <c r="CY5">
+        <v>1</v>
+      </c>
+      <c r="CZ5">
+        <v>1</v>
+      </c>
+      <c r="DA5">
+        <v>1</v>
+      </c>
+      <c r="DB5">
+        <v>1</v>
+      </c>
+      <c r="DC5">
+        <v>1</v>
+      </c>
+      <c r="DD5">
+        <v>1</v>
+      </c>
+      <c r="DE5">
+        <v>1</v>
+      </c>
+      <c r="DF5">
+        <v>1</v>
+      </c>
+      <c r="DG5">
+        <v>1</v>
+      </c>
+      <c r="DH5">
+        <v>1</v>
+      </c>
+      <c r="DI5">
+        <v>1</v>
+      </c>
+      <c r="DJ5">
+        <v>1</v>
+      </c>
+      <c r="DK5">
+        <v>1</v>
+      </c>
+      <c r="DL5">
+        <v>1</v>
+      </c>
+      <c r="DM5">
+        <v>1</v>
+      </c>
+      <c r="DN5">
+        <v>1</v>
+      </c>
+      <c r="DO5">
+        <v>1</v>
+      </c>
+      <c r="DP5">
+        <v>1</v>
+      </c>
+      <c r="DQ5">
+        <v>1</v>
+      </c>
+      <c r="DR5">
+        <v>1</v>
+      </c>
+      <c r="DS5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:123">
+      <c r="A6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0.2592769101764228</v>
+      </c>
+      <c r="BA6">
+        <v>0.2592769101764228</v>
+      </c>
+      <c r="BB6">
+        <v>0.6096282156314387</v>
+      </c>
+      <c r="BC6">
+        <v>0.6501452107888958</v>
+      </c>
+      <c r="BD6">
+        <v>0.6501452107888958</v>
+      </c>
+      <c r="BE6">
+        <v>0.7312990540572948</v>
+      </c>
+      <c r="BF6">
+        <v>0.7509125266368084</v>
+      </c>
+      <c r="BG6">
+        <v>0.7509125266368084</v>
+      </c>
+      <c r="BH6">
+        <v>0.7509125266368084</v>
+      </c>
+      <c r="BI6">
+        <v>0.8763034429271728</v>
+      </c>
+      <c r="BJ6">
+        <v>0.8806548702033927</v>
+      </c>
+      <c r="BK6">
+        <v>0.9028194895194332</v>
+      </c>
+      <c r="BL6">
+        <v>0.9443216281532291</v>
+      </c>
+      <c r="BM6">
+        <v>0.9443216281532291</v>
+      </c>
+      <c r="BN6">
+        <v>0.9668404480093871</v>
+      </c>
+      <c r="BO6">
+        <v>0.9668404480093871</v>
+      </c>
+      <c r="BP6">
+        <v>0.9668404480093871</v>
+      </c>
+      <c r="BQ6">
+        <v>0.9668404480093871</v>
+      </c>
+      <c r="BR6">
+        <v>0.9668404480093871</v>
+      </c>
+      <c r="BS6">
+        <v>0.9668404480093871</v>
+      </c>
+      <c r="BT6">
+        <v>0.9668404480093871</v>
+      </c>
+      <c r="BU6">
+        <v>0.9668404480093871</v>
+      </c>
+      <c r="BV6">
+        <v>0.9668404480093871</v>
+      </c>
+      <c r="BW6">
+        <v>0.9901663817157527</v>
+      </c>
+      <c r="BX6">
+        <v>0.9901663817157527</v>
+      </c>
+      <c r="BY6">
+        <v>0.9901663817157527</v>
+      </c>
+      <c r="BZ6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AH4">
+      <c r="CA6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AI4">
+      <c r="CB6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AJ4">
+      <c r="CC6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AK4">
+      <c r="CD6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AL4">
+      <c r="CE6">
         <v>0.9999999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:38">
-      <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.038575329251885</v>
-      </c>
-      <c r="F5">
-        <v>0.3490955055536466</v>
-      </c>
-      <c r="G5">
-        <v>0.5838050483937877</v>
-      </c>
-      <c r="H5">
-        <v>0.6373608064619574</v>
-      </c>
-      <c r="I5">
-        <v>0.6373608064619574</v>
-      </c>
-      <c r="J5">
-        <v>0.6787135266090021</v>
-      </c>
-      <c r="K5">
-        <v>0.6912965301017774</v>
-      </c>
-      <c r="L5">
-        <v>0.7343862707436721</v>
-      </c>
-      <c r="M5">
-        <v>0.7381090127602664</v>
-      </c>
-      <c r="N5">
-        <v>0.7533617474919139</v>
-      </c>
-      <c r="O5">
-        <v>0.7931998182759362</v>
-      </c>
-      <c r="P5">
-        <v>0.7931998182759362</v>
-      </c>
-      <c r="Q5">
-        <v>0.8666382971977546</v>
-      </c>
-      <c r="R5">
-        <v>0.8666382971977546</v>
-      </c>
-      <c r="S5">
-        <v>0.9912984052651502</v>
-      </c>
-      <c r="T5">
-        <v>0.9912984052651502</v>
-      </c>
-      <c r="U5">
-        <v>0.9943237992994531</v>
-      </c>
-      <c r="V5">
-        <v>0.9943237992994531</v>
-      </c>
-      <c r="W5">
-        <v>0.9943237992994531</v>
-      </c>
-      <c r="X5">
-        <v>0.9943237992994531</v>
-      </c>
-      <c r="Y5">
-        <v>0.9977051880874108</v>
-      </c>
-      <c r="Z5">
-        <v>0.9977051880874108</v>
-      </c>
-      <c r="AA5">
-        <v>0.9977051880874108</v>
-      </c>
-      <c r="AB5">
-        <v>0.9977051880874108</v>
-      </c>
-      <c r="AC5">
-        <v>0.9977051880874108</v>
-      </c>
-      <c r="AD5">
-        <v>0.9977051880874108</v>
-      </c>
-      <c r="AE5">
-        <v>0.9977051880874108</v>
-      </c>
-      <c r="AF5">
-        <v>0.9977051880874108</v>
-      </c>
-      <c r="AG5">
-        <v>0.9977051880874108</v>
-      </c>
-      <c r="AH5">
-        <v>0.9977051880874108</v>
-      </c>
-      <c r="AI5">
-        <v>1</v>
-      </c>
-      <c r="AJ5">
-        <v>1</v>
-      </c>
-      <c r="AK5">
-        <v>1</v>
-      </c>
-      <c r="AL5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38">
-      <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0.3936349018295414</v>
-      </c>
-      <c r="E6">
-        <v>0.4496645376987412</v>
-      </c>
-      <c r="F6">
-        <v>0.6187539368751271</v>
-      </c>
-      <c r="G6">
-        <v>0.6187539368751271</v>
-      </c>
-      <c r="H6">
-        <v>0.6418502890359307</v>
-      </c>
-      <c r="I6">
-        <v>0.6707064061434164</v>
-      </c>
-      <c r="J6">
-        <v>0.6707064061434164</v>
-      </c>
-      <c r="K6">
-        <v>0.6707064061434164</v>
-      </c>
-      <c r="L6">
-        <v>0.6707064061434164</v>
-      </c>
-      <c r="M6">
-        <v>0.7435251492241034</v>
-      </c>
-      <c r="N6">
-        <v>0.7435251492241034</v>
-      </c>
-      <c r="O6">
-        <v>0.7737521718405184</v>
-      </c>
-      <c r="P6">
-        <v>0.8066678122462005</v>
-      </c>
-      <c r="Q6">
-        <v>0.9273879465304012</v>
-      </c>
-      <c r="R6">
-        <v>0.9634191675724121</v>
-      </c>
-      <c r="S6">
-        <v>0.9998954213729185</v>
-      </c>
-      <c r="T6">
-        <v>0.9998954213729185</v>
-      </c>
-      <c r="U6">
+      <c r="CF6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="V6">
+      <c r="CG6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="W6">
+      <c r="CH6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="X6">
+      <c r="CI6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="Y6">
+      <c r="CJ6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="Z6">
+      <c r="CK6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AA6">
+      <c r="CL6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AB6">
+      <c r="CM6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AC6">
+      <c r="CN6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AD6">
+      <c r="CO6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AE6">
+      <c r="CP6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AF6">
+      <c r="CQ6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AG6">
+      <c r="CR6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AH6">
+      <c r="CS6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AI6">
+      <c r="CT6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AJ6">
+      <c r="CU6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AK6">
+      <c r="CV6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AL6">
+      <c r="CW6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CX6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CY6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CZ6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DA6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DB6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DC6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DD6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DE6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DF6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DG6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DH6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DI6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DJ6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DK6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DL6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DM6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DN6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DO6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DP6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DQ6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DR6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DS6">
         <v>0.9999999999999999</v>
       </c>
     </row>
@@ -1979,66 +5294,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D2">
+        <v>53</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.6315121283380056</v>
+      </c>
+      <c r="G2">
         <v>4</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.618083820235991</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -2047,39 +5362,39 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="M2" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5430932981655407</v>
+        <v>0.6021506967579715</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -2088,39 +5403,39 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="M3" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.3558730213780589</v>
       </c>
       <c r="F4">
-        <v>0.5382894141461619</v>
+        <v>0.5402965653304584</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -2129,39 +5444,39 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="L4" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.3045546881646484</v>
       </c>
       <c r="F5">
-        <v>0.5838050483937877</v>
+        <v>0.5265346346140691</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -2170,36 +5485,36 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="L5" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6187539368751271</v>
+        <v>0.6096282156314387</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2211,16 +5526,16 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="L6" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="M6" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2238,66 +5553,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7694692320015831</v>
+        <v>0.7201360183339449</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -2306,39 +5621,39 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="M2" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7043201979638709</v>
+        <v>0.828790343678515</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -2347,39 +5662,39 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="M3" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.3558730213780589</v>
       </c>
       <c r="F4">
-        <v>0.8739896230412217</v>
+        <v>0.7206717577870303</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -2388,39 +5703,39 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="L4" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.3045546881646484</v>
       </c>
       <c r="F5">
-        <v>0.7343862707436721</v>
+        <v>0.7253491600879169</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -2429,39 +5744,39 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="L5" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7435251492241034</v>
+        <v>0.7312990540572948</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>20</v>
@@ -2470,16 +5785,16 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="L6" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="M6" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2497,66 +5812,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8048824515340554</v>
+        <v>0.8335725291371002</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -2565,39 +5880,39 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="M2" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8992411995839882</v>
+        <v>0.828790343678515</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -2606,39 +5921,39 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="M3" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>18</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.3558730213780589</v>
       </c>
       <c r="F4">
-        <v>0.8739896230412217</v>
+        <v>0.8313751837613809</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -2647,39 +5962,39 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="L4" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.3045546881646484</v>
       </c>
       <c r="F5">
-        <v>0.8666382971977546</v>
+        <v>0.8826307854640362</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -2688,39 +6003,39 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="L5" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8066678122462005</v>
+        <v>0.8763034429271728</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>20</v>
@@ -2729,16 +6044,16 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="L6" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="M6" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2756,66 +6071,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D2">
+        <v>63</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.9011741111268912</v>
+      </c>
+      <c r="G2">
         <v>14</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.9123219578976391</v>
-      </c>
-      <c r="G2">
-        <v>13</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -2824,39 +6139,39 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="M2" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9773617450667957</v>
+        <v>0.9247620617552846</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -2865,39 +6180,39 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="M3" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.3558730213780589</v>
       </c>
       <c r="F4">
-        <v>0.9768860522855517</v>
+        <v>0.9249975592816577</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -2906,39 +6221,39 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="L4" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.3045546881646484</v>
       </c>
       <c r="F5">
-        <v>0.9912984052651502</v>
+        <v>0.9441450844580435</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -2947,39 +6262,39 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="L5" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9273879465304012</v>
+        <v>0.9028194895194332</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>20</v>
@@ -2988,16 +6303,16 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="L6" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="M6" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
